--- a/Code/Results/Cases/Case_0_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002788533067685</v>
+        <v>1.034664657185821</v>
       </c>
       <c r="D2">
-        <v>1.010501826238176</v>
+        <v>1.035499414816682</v>
       </c>
       <c r="E2">
-        <v>1.017057814137312</v>
+        <v>1.043060927551002</v>
       </c>
       <c r="F2">
-        <v>1.02387615741355</v>
+        <v>1.052178916453339</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045055183062471</v>
+        <v>1.034632786520877</v>
       </c>
       <c r="J2">
-        <v>1.024886158284703</v>
+        <v>1.039782661555336</v>
       </c>
       <c r="K2">
-        <v>1.021816767373751</v>
+        <v>1.038295843983805</v>
       </c>
       <c r="L2">
-        <v>1.028284513459383</v>
+        <v>1.045835857010109</v>
       </c>
       <c r="M2">
-        <v>1.03501258657914</v>
+        <v>1.054928366262623</v>
       </c>
       <c r="N2">
-        <v>1.026341614185553</v>
+        <v>1.041259272199483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007222371279007</v>
+        <v>1.035609885579049</v>
       </c>
       <c r="D3">
-        <v>1.014099308254041</v>
+        <v>1.036313140980414</v>
       </c>
       <c r="E3">
-        <v>1.020779348820751</v>
+        <v>1.043907164975743</v>
       </c>
       <c r="F3">
-        <v>1.02801237874699</v>
+        <v>1.053123353420785</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045947956008623</v>
+        <v>1.034758132182085</v>
       </c>
       <c r="J3">
-        <v>1.027518064993197</v>
+        <v>1.040371137546062</v>
       </c>
       <c r="K3">
-        <v>1.0245549090783</v>
+        <v>1.038918966212543</v>
       </c>
       <c r="L3">
-        <v>1.031153082181459</v>
+        <v>1.046492960411753</v>
       </c>
       <c r="M3">
-        <v>1.038298955567556</v>
+        <v>1.055685259188329</v>
       </c>
       <c r="N3">
-        <v>1.028977258503456</v>
+        <v>1.041848583893615</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010034545047403</v>
+        <v>1.03622198076301</v>
       </c>
       <c r="D4">
-        <v>1.016386374197319</v>
+        <v>1.036840392142673</v>
       </c>
       <c r="E4">
-        <v>1.023145619106743</v>
+        <v>1.044455525656433</v>
       </c>
       <c r="F4">
-        <v>1.030641830184268</v>
+        <v>1.053735337288572</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046503070883522</v>
+        <v>1.034837906087498</v>
       </c>
       <c r="J4">
-        <v>1.02918500312889</v>
+        <v>1.040751774919679</v>
       </c>
       <c r="K4">
-        <v>1.026290972426449</v>
+        <v>1.039322233431118</v>
       </c>
       <c r="L4">
-        <v>1.032972497490782</v>
+        <v>1.046918293595544</v>
       </c>
       <c r="M4">
-        <v>1.040383983056994</v>
+        <v>1.056175263290503</v>
       </c>
       <c r="N4">
-        <v>1.030646563882503</v>
+        <v>1.042229761815962</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011203649033143</v>
+        <v>1.03647941686015</v>
       </c>
       <c r="D5">
-        <v>1.01733841791222</v>
+        <v>1.037062218522803</v>
       </c>
       <c r="E5">
-        <v>1.024130716619252</v>
+        <v>1.044686243839101</v>
       </c>
       <c r="F5">
-        <v>1.031736381948702</v>
+        <v>1.053992822135048</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04673113701848</v>
+        <v>1.034871123347509</v>
       </c>
       <c r="J5">
-        <v>1.029877398225946</v>
+        <v>1.040911758898989</v>
       </c>
       <c r="K5">
-        <v>1.027012522516057</v>
+        <v>1.039491781541884</v>
       </c>
       <c r="L5">
-        <v>1.033728849275614</v>
+        <v>1.047097136846697</v>
       </c>
       <c r="M5">
-        <v>1.04125090260427</v>
+        <v>1.056381318102497</v>
       </c>
       <c r="N5">
-        <v>1.031339942260016</v>
+        <v>1.042389972990873</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011399189749493</v>
+        <v>1.036522648008893</v>
       </c>
       <c r="D6">
-        <v>1.017497725656553</v>
+        <v>1.037099474075748</v>
       </c>
       <c r="E6">
-        <v>1.024295560275968</v>
+        <v>1.044724993382601</v>
       </c>
       <c r="F6">
-        <v>1.031919535128258</v>
+        <v>1.054036067060142</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046769122070016</v>
+        <v>1.034876681909227</v>
       </c>
       <c r="J6">
-        <v>1.029993169781605</v>
+        <v>1.0409386187736</v>
       </c>
       <c r="K6">
-        <v>1.027133194960799</v>
+        <v>1.039520250238231</v>
       </c>
       <c r="L6">
-        <v>1.033855351325533</v>
+        <v>1.047127167328233</v>
       </c>
       <c r="M6">
-        <v>1.041395906277547</v>
+        <v>1.056415918922827</v>
       </c>
       <c r="N6">
-        <v>1.031455878224562</v>
+        <v>1.042416871009586</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010050217675424</v>
+        <v>1.036225420200783</v>
       </c>
       <c r="D7">
-        <v>1.016399132131872</v>
+        <v>1.03684335553143</v>
       </c>
       <c r="E7">
-        <v>1.023158819650484</v>
+        <v>1.044458607789687</v>
       </c>
       <c r="F7">
-        <v>1.030656497866812</v>
+        <v>1.053738777002818</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046506139028206</v>
+        <v>1.034838351194985</v>
       </c>
       <c r="J7">
-        <v>1.029194287570142</v>
+        <v>1.040753912776084</v>
       </c>
       <c r="K7">
-        <v>1.026300646062124</v>
+        <v>1.039324498885396</v>
       </c>
       <c r="L7">
-        <v>1.032982637076094</v>
+        <v>1.046920683178868</v>
       </c>
       <c r="M7">
-        <v>1.040395604310757</v>
+        <v>1.056178016382266</v>
       </c>
       <c r="N7">
-        <v>1.030655861508726</v>
+        <v>1.042231902708369</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004299022668651</v>
+        <v>1.034984003763312</v>
       </c>
       <c r="D8">
-        <v>1.011726243545454</v>
+        <v>1.03577426830451</v>
       </c>
       <c r="E8">
-        <v>1.018324383433389</v>
+        <v>1.043346753342027</v>
       </c>
       <c r="F8">
-        <v>1.025283966211654</v>
+        <v>1.052497912337111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045361634059195</v>
+        <v>1.03467542338114</v>
       </c>
       <c r="J8">
-        <v>1.025783250164011</v>
+        <v>1.039981569368429</v>
       </c>
       <c r="K8">
-        <v>1.022749684042426</v>
+        <v>1.038506416840226</v>
       </c>
       <c r="L8">
-        <v>1.029261730814649</v>
+        <v>1.0460578978178</v>
       </c>
       <c r="M8">
-        <v>1.036132004437178</v>
+        <v>1.055184110532602</v>
       </c>
       <c r="N8">
-        <v>1.027239980038227</v>
+        <v>1.041458462484485</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9937073145253865</v>
+        <v>1.032800109228964</v>
       </c>
       <c r="D9">
-        <v>1.003165006115872</v>
+        <v>1.033895945000247</v>
       </c>
       <c r="E9">
-        <v>1.009469772189928</v>
+        <v>1.041393624882096</v>
       </c>
       <c r="F9">
-        <v>1.015439569906931</v>
+        <v>1.050318077465679</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043167310514203</v>
+        <v>1.03437813743848</v>
       </c>
       <c r="J9">
-        <v>1.01948425754869</v>
+        <v>1.03861952947699</v>
       </c>
       <c r="K9">
-        <v>1.016206941169827</v>
+        <v>1.037065401787282</v>
       </c>
       <c r="L9">
-        <v>1.022411054874932</v>
+        <v>1.044538707769335</v>
       </c>
       <c r="M9">
-        <v>1.028287020742908</v>
+        <v>1.053434644523944</v>
       </c>
       <c r="N9">
-        <v>1.020932042130889</v>
+        <v>1.040094488340172</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9863056449132446</v>
+        <v>1.031346687922498</v>
       </c>
       <c r="D10">
-        <v>0.9972155162115347</v>
+        <v>1.032647540406588</v>
       </c>
       <c r="E10">
-        <v>1.00331804853904</v>
+        <v>1.040095724672435</v>
       </c>
       <c r="F10">
-        <v>1.008596825882685</v>
+        <v>1.048869462814493</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041578035291105</v>
+        <v>1.034173129920349</v>
       </c>
       <c r="J10">
-        <v>1.015073329699088</v>
+        <v>1.037710842917555</v>
       </c>
       <c r="K10">
-        <v>1.011635228030316</v>
+        <v>1.03610515984171</v>
       </c>
       <c r="L10">
-        <v>1.017627651912957</v>
+        <v>1.04352675324782</v>
       </c>
       <c r="M10">
-        <v>1.022812577615692</v>
+        <v>1.052269701795692</v>
       </c>
       <c r="N10">
-        <v>1.016514850257799</v>
+        <v>1.039184511341595</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9830118904242949</v>
+        <v>1.03071794790163</v>
       </c>
       <c r="D11">
-        <v>0.9945765990804268</v>
+        <v>1.032107888611014</v>
       </c>
       <c r="E11">
-        <v>1.000589793943671</v>
+        <v>1.039534729661128</v>
       </c>
       <c r="F11">
-        <v>1.005561189324888</v>
+        <v>1.04824330757773</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040858185560687</v>
+        <v>1.034082749137727</v>
       </c>
       <c r="J11">
-        <v>1.013108879077679</v>
+        <v>1.037317227698308</v>
       </c>
       <c r="K11">
-        <v>1.009601522704707</v>
+        <v>1.03568948109659</v>
       </c>
       <c r="L11">
-        <v>1.015500596179512</v>
+        <v>1.043088778658581</v>
       </c>
       <c r="M11">
-        <v>1.020378986313878</v>
+        <v>1.051765608775338</v>
       </c>
       <c r="N11">
-        <v>1.014547609891181</v>
+        <v>1.038790337143589</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9817743713443141</v>
+        <v>1.030484497112122</v>
       </c>
       <c r="D12">
-        <v>0.9935864731506742</v>
+        <v>1.031907576842383</v>
       </c>
       <c r="E12">
-        <v>0.9995662010145846</v>
+        <v>1.039326503407806</v>
       </c>
       <c r="F12">
-        <v>1.004422123591597</v>
+        <v>1.048010892985379</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040585885117534</v>
+        <v>1.034048936134822</v>
       </c>
       <c r="J12">
-        <v>1.012370615435449</v>
+        <v>1.037171000240951</v>
       </c>
       <c r="K12">
-        <v>1.008837586425424</v>
+        <v>1.035535097444337</v>
       </c>
       <c r="L12">
-        <v>1.014701716649934</v>
+        <v>1.042926127800748</v>
       </c>
       <c r="M12">
-        <v>1.019465090265487</v>
+        <v>1.051578417719866</v>
       </c>
       <c r="N12">
-        <v>1.0138082978299</v>
+        <v>1.03864390202647</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.982040472510276</v>
+        <v>1.030534568954335</v>
       </c>
       <c r="D13">
-        <v>0.9937993153579345</v>
+        <v>1.03195053808753</v>
       </c>
       <c r="E13">
-        <v>0.9997862351070687</v>
+        <v>1.039371161733175</v>
       </c>
       <c r="F13">
-        <v>1.004666986892338</v>
+        <v>1.048060739109172</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040644519580141</v>
+        <v>1.034056200061532</v>
       </c>
       <c r="J13">
-        <v>1.012529370316738</v>
+        <v>1.037202367472189</v>
       </c>
       <c r="K13">
-        <v>1.009001845892785</v>
+        <v>1.035568212432855</v>
       </c>
       <c r="L13">
-        <v>1.0148734839795</v>
+        <v>1.042961015477862</v>
       </c>
       <c r="M13">
-        <v>1.019661582279508</v>
+        <v>1.05161856848483</v>
       </c>
       <c r="N13">
-        <v>1.01396727816133</v>
+        <v>1.038675313802774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9829098881956173</v>
+        <v>1.030698648919547</v>
       </c>
       <c r="D14">
-        <v>0.9944949601478532</v>
+        <v>1.032091327935534</v>
       </c>
       <c r="E14">
-        <v>1.00050539449733</v>
+        <v>1.039517514499779</v>
       </c>
       <c r="F14">
-        <v>1.005467271753682</v>
+        <v>1.048224092693144</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04083577835065</v>
+        <v>1.034079959069105</v>
       </c>
       <c r="J14">
-        <v>1.013048031351971</v>
+        <v>1.037305140918626</v>
       </c>
       <c r="K14">
-        <v>1.00953855183715</v>
+        <v>1.035676719323584</v>
       </c>
       <c r="L14">
-        <v>1.015434742465795</v>
+        <v>1.04307533322053</v>
       </c>
       <c r="M14">
-        <v>1.020303649215706</v>
+        <v>1.051750134445859</v>
       </c>
       <c r="N14">
-        <v>1.014486675754724</v>
+        <v>1.038778233199293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9834436764244341</v>
+        <v>1.030799756121484</v>
       </c>
       <c r="D15">
-        <v>0.9949222409652304</v>
+        <v>1.032178091659009</v>
       </c>
       <c r="E15">
-        <v>1.000947125388046</v>
+        <v>1.039607707488386</v>
       </c>
       <c r="F15">
-        <v>1.00595881260501</v>
+        <v>1.048324762444196</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040952962896734</v>
+        <v>1.034094565784416</v>
       </c>
       <c r="J15">
-        <v>1.013366446513488</v>
+        <v>1.037368460246083</v>
       </c>
       <c r="K15">
-        <v>1.009868091803387</v>
+        <v>1.035743576409377</v>
       </c>
       <c r="L15">
-        <v>1.01577937397989</v>
+        <v>1.043145772481588</v>
       </c>
       <c r="M15">
-        <v>1.020697914586597</v>
+        <v>1.051831203442551</v>
       </c>
       <c r="N15">
-        <v>1.014805543102294</v>
+        <v>1.038841642447458</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9865223085387775</v>
+        <v>1.031388428070769</v>
       </c>
       <c r="D16">
-        <v>0.9973892895293076</v>
+        <v>1.032683374727462</v>
       </c>
       <c r="E16">
-        <v>1.003497712165934</v>
+        <v>1.04013297734198</v>
       </c>
       <c r="F16">
-        <v>1.008796711473246</v>
+        <v>1.0489110420654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041625128728929</v>
+        <v>1.034179094292694</v>
       </c>
       <c r="J16">
-        <v>1.015202522849149</v>
+        <v>1.037736962830604</v>
       </c>
       <c r="K16">
-        <v>1.011769024817229</v>
+        <v>1.036132749528814</v>
       </c>
       <c r="L16">
-        <v>1.01776760722743</v>
+        <v>1.043555824663101</v>
       </c>
       <c r="M16">
-        <v>1.022972717857993</v>
+        <v>1.052303163949246</v>
       </c>
       <c r="N16">
-        <v>1.016644226876952</v>
+        <v>1.039210668347917</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.988429181291782</v>
+        <v>1.031757848009219</v>
       </c>
       <c r="D17">
-        <v>0.9989196700989619</v>
+        <v>1.033000571556778</v>
       </c>
       <c r="E17">
-        <v>1.00508000855545</v>
+        <v>1.040462735109879</v>
       </c>
       <c r="F17">
-        <v>1.010556996558441</v>
+        <v>1.04927909647343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042038171150913</v>
+        <v>1.034231685791555</v>
       </c>
       <c r="J17">
-        <v>1.016339387407124</v>
+        <v>1.037968075854568</v>
       </c>
       <c r="K17">
-        <v>1.01294666796368</v>
+        <v>1.036376898374636</v>
       </c>
       <c r="L17">
-        <v>1.018999549269549</v>
+        <v>1.043813096130431</v>
       </c>
       <c r="M17">
-        <v>1.024382421174945</v>
+        <v>1.05259930282556</v>
       </c>
       <c r="N17">
-        <v>1.017782705913</v>
+        <v>1.039442109578884</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9895329137872689</v>
+        <v>1.031973382332256</v>
       </c>
       <c r="D18">
-        <v>0.9998062953966768</v>
+        <v>1.033185675353889</v>
       </c>
       <c r="E18">
-        <v>1.005996746022072</v>
+        <v>1.040655174048882</v>
       </c>
       <c r="F18">
-        <v>1.011576768975465</v>
+        <v>1.049493882853114</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042276045945746</v>
+        <v>1.034262206034191</v>
       </c>
       <c r="J18">
-        <v>1.016997271671788</v>
+        <v>1.03810286583073</v>
       </c>
       <c r="K18">
-        <v>1.013628373272235</v>
+        <v>1.036519317035016</v>
       </c>
       <c r="L18">
-        <v>1.019712764479236</v>
+        <v>1.043963178258314</v>
       </c>
       <c r="M18">
-        <v>1.025198620212024</v>
+        <v>1.052772067849442</v>
       </c>
       <c r="N18">
-        <v>1.018441524448779</v>
+        <v>1.039577090972273</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9899078353580923</v>
+        <v>1.032046883762238</v>
       </c>
       <c r="D19">
-        <v>1.000107604931367</v>
+        <v>1.033248805892682</v>
       </c>
       <c r="E19">
-        <v>1.00630829479547</v>
+        <v>1.040720807133013</v>
       </c>
       <c r="F19">
-        <v>1.011923319289801</v>
+        <v>1.049567137474418</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042356643043551</v>
+        <v>1.034272586259266</v>
       </c>
       <c r="J19">
-        <v>1.017220717675928</v>
+        <v>1.038148823266875</v>
       </c>
       <c r="K19">
-        <v>1.013859947774655</v>
+        <v>1.036567879912139</v>
       </c>
       <c r="L19">
-        <v>1.019955056060792</v>
+        <v>1.044014355750173</v>
       </c>
       <c r="M19">
-        <v>1.025475909340463</v>
+        <v>1.052830981686993</v>
       </c>
       <c r="N19">
-        <v>1.018665287771875</v>
+        <v>1.039623113673248</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9882254776876029</v>
+        <v>1.031718206747787</v>
       </c>
       <c r="D20">
-        <v>0.9987561008241643</v>
+        <v>1.032966530200546</v>
       </c>
       <c r="E20">
-        <v>1.004910886853429</v>
+        <v>1.040427345198465</v>
       </c>
       <c r="F20">
-        <v>1.010368859822845</v>
+        <v>1.049239596695746</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041994171751216</v>
+        <v>1.034226059300742</v>
       </c>
       <c r="J20">
-        <v>1.016217956276495</v>
+        <v>1.037943281090492</v>
       </c>
       <c r="K20">
-        <v>1.012820858020316</v>
+        <v>1.036350702392476</v>
       </c>
       <c r="L20">
-        <v>1.018867930404046</v>
+        <v>1.043785491256666</v>
       </c>
       <c r="M20">
-        <v>1.024231803149457</v>
+        <v>1.052567526584429</v>
       </c>
       <c r="N20">
-        <v>1.017661102336237</v>
+        <v>1.039417279603398</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826542615471733</v>
+        <v>1.030650328932759</v>
       </c>
       <c r="D21">
-        <v>0.9942903878620134</v>
+        <v>1.032049864988045</v>
       </c>
       <c r="E21">
-        <v>1.000293905706883</v>
+        <v>1.039474413043211</v>
       </c>
       <c r="F21">
-        <v>1.005231929941632</v>
+        <v>1.048175984503362</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040779594428644</v>
+        <v>1.034072969297623</v>
       </c>
       <c r="J21">
-        <v>1.0128955387193</v>
+        <v>1.037274877278581</v>
       </c>
       <c r="K21">
-        <v>1.009380744030481</v>
+        <v>1.035644766244915</v>
       </c>
       <c r="L21">
-        <v>1.01526971209336</v>
+        <v>1.043041668591252</v>
       </c>
       <c r="M21">
-        <v>1.020114855145974</v>
+        <v>1.051711390116997</v>
       </c>
       <c r="N21">
-        <v>1.014333966565024</v>
+        <v>1.038747926581408</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9790695995993035</v>
+        <v>1.029979440181281</v>
       </c>
       <c r="D22">
-        <v>0.9914249889087813</v>
+        <v>1.031474325708462</v>
       </c>
       <c r="E22">
-        <v>0.9973317512156873</v>
+        <v>1.03887614845913</v>
       </c>
       <c r="F22">
-        <v>1.001935317823911</v>
+        <v>1.047508218191863</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039987412608007</v>
+        <v>1.03397531821844</v>
       </c>
       <c r="J22">
-        <v>1.010756752173031</v>
+        <v>1.03685450287924</v>
       </c>
       <c r="K22">
-        <v>1.007168254136851</v>
+        <v>1.035201020502138</v>
       </c>
       <c r="L22">
-        <v>1.012956252603011</v>
+        <v>1.042574185790362</v>
       </c>
       <c r="M22">
-        <v>1.017468532936337</v>
+        <v>1.051173401925616</v>
       </c>
       <c r="N22">
-        <v>1.012192142696536</v>
+        <v>1.038326955202203</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9809779104279912</v>
+        <v>1.030335040593965</v>
       </c>
       <c r="D23">
-        <v>0.9929496247908164</v>
+        <v>1.031779353252339</v>
       </c>
       <c r="E23">
-        <v>0.9989078412452786</v>
+        <v>1.039193215800105</v>
       </c>
       <c r="F23">
-        <v>1.003689450230443</v>
+        <v>1.047862121437966</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040410122352307</v>
+        <v>1.034027217183939</v>
       </c>
       <c r="J23">
-        <v>1.011895426803648</v>
+        <v>1.037077362573608</v>
       </c>
       <c r="K23">
-        <v>1.008345973297293</v>
+        <v>1.035436248272167</v>
       </c>
       <c r="L23">
-        <v>1.014187651154334</v>
+        <v>1.042821989078756</v>
       </c>
       <c r="M23">
-        <v>1.018877045065295</v>
+        <v>1.051458570913517</v>
       </c>
       <c r="N23">
-        <v>1.013332434375737</v>
+        <v>1.038550131382899</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9883175488357743</v>
+        <v>1.031736118748573</v>
       </c>
       <c r="D24">
-        <v>0.99883002930652</v>
+        <v>1.032981911751587</v>
       </c>
       <c r="E24">
-        <v>1.004987324761045</v>
+        <v>1.040443336077099</v>
       </c>
       <c r="F24">
-        <v>1.010453892219708</v>
+        <v>1.049257444616191</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042014062587236</v>
+        <v>1.034228602150232</v>
       </c>
       <c r="J24">
-        <v>1.016272841910045</v>
+        <v>1.037954484821497</v>
       </c>
       <c r="K24">
-        <v>1.012877722140691</v>
+        <v>1.036362539196045</v>
       </c>
       <c r="L24">
-        <v>1.018927419824985</v>
+        <v>1.043797964649084</v>
       </c>
       <c r="M24">
-        <v>1.024299879636132</v>
+        <v>1.052581884800539</v>
       </c>
       <c r="N24">
-        <v>1.017716065913681</v>
+        <v>1.039428499244986</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9965029967162286</v>
+        <v>1.033364260687623</v>
       </c>
       <c r="D25">
-        <v>1.005419240572985</v>
+        <v>1.034380870955061</v>
       </c>
       <c r="E25">
-        <v>1.011800961927461</v>
+        <v>1.04189782379944</v>
       </c>
       <c r="F25">
-        <v>1.018031888997456</v>
+        <v>1.050880811006087</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043756331679004</v>
+        <v>1.034456196836769</v>
       </c>
       <c r="J25">
-        <v>1.021148624833784</v>
+        <v>1.038971770219853</v>
       </c>
       <c r="K25">
-        <v>1.017934008300555</v>
+        <v>1.037437866846959</v>
       </c>
       <c r="L25">
-        <v>1.024218804202136</v>
+        <v>1.04493131186717</v>
       </c>
       <c r="M25">
-        <v>1.03035658650742</v>
+        <v>1.053886687805035</v>
       </c>
       <c r="N25">
-        <v>1.022598773008432</v>
+        <v>1.040447229305294</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034664657185821</v>
+        <v>1.002788533067684</v>
       </c>
       <c r="D2">
-        <v>1.035499414816682</v>
+        <v>1.010501826238175</v>
       </c>
       <c r="E2">
-        <v>1.043060927551002</v>
+        <v>1.017057814137311</v>
       </c>
       <c r="F2">
-        <v>1.052178916453339</v>
+        <v>1.023876157413549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034632786520877</v>
+        <v>1.045055183062471</v>
       </c>
       <c r="J2">
-        <v>1.039782661555336</v>
+        <v>1.024886158284702</v>
       </c>
       <c r="K2">
-        <v>1.038295843983805</v>
+        <v>1.02181676737375</v>
       </c>
       <c r="L2">
-        <v>1.045835857010109</v>
+        <v>1.028284513459382</v>
       </c>
       <c r="M2">
-        <v>1.054928366262623</v>
+        <v>1.035012586579139</v>
       </c>
       <c r="N2">
-        <v>1.041259272199483</v>
+        <v>1.026341614185552</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035609885579049</v>
+        <v>1.007222371279007</v>
       </c>
       <c r="D3">
-        <v>1.036313140980414</v>
+        <v>1.014099308254041</v>
       </c>
       <c r="E3">
-        <v>1.043907164975743</v>
+        <v>1.02077934882075</v>
       </c>
       <c r="F3">
-        <v>1.053123353420785</v>
+        <v>1.028012378746989</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034758132182085</v>
+        <v>1.045947956008623</v>
       </c>
       <c r="J3">
-        <v>1.040371137546062</v>
+        <v>1.027518064993196</v>
       </c>
       <c r="K3">
-        <v>1.038918966212543</v>
+        <v>1.0245549090783</v>
       </c>
       <c r="L3">
-        <v>1.046492960411753</v>
+        <v>1.031153082181459</v>
       </c>
       <c r="M3">
-        <v>1.055685259188329</v>
+        <v>1.038298955567556</v>
       </c>
       <c r="N3">
-        <v>1.041848583893615</v>
+        <v>1.028977258503456</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03622198076301</v>
+        <v>1.010034545047402</v>
       </c>
       <c r="D4">
-        <v>1.036840392142673</v>
+        <v>1.016386374197317</v>
       </c>
       <c r="E4">
-        <v>1.044455525656433</v>
+        <v>1.023145619106743</v>
       </c>
       <c r="F4">
-        <v>1.053735337288572</v>
+        <v>1.030641830184267</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034837906087498</v>
+        <v>1.046503070883522</v>
       </c>
       <c r="J4">
-        <v>1.040751774919679</v>
+        <v>1.029185003128888</v>
       </c>
       <c r="K4">
-        <v>1.039322233431118</v>
+        <v>1.026290972426448</v>
       </c>
       <c r="L4">
-        <v>1.046918293595544</v>
+        <v>1.032972497490781</v>
       </c>
       <c r="M4">
-        <v>1.056175263290503</v>
+        <v>1.040383983056994</v>
       </c>
       <c r="N4">
-        <v>1.042229761815962</v>
+        <v>1.030646563882502</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03647941686015</v>
+        <v>1.011203649033143</v>
       </c>
       <c r="D5">
-        <v>1.037062218522803</v>
+        <v>1.017338417912219</v>
       </c>
       <c r="E5">
-        <v>1.044686243839101</v>
+        <v>1.024130716619251</v>
       </c>
       <c r="F5">
-        <v>1.053992822135048</v>
+        <v>1.031736381948702</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034871123347509</v>
+        <v>1.04673113701848</v>
       </c>
       <c r="J5">
-        <v>1.040911758898989</v>
+        <v>1.029877398225946</v>
       </c>
       <c r="K5">
-        <v>1.039491781541884</v>
+        <v>1.027012522516056</v>
       </c>
       <c r="L5">
-        <v>1.047097136846697</v>
+        <v>1.033728849275613</v>
       </c>
       <c r="M5">
-        <v>1.056381318102497</v>
+        <v>1.041250902604269</v>
       </c>
       <c r="N5">
-        <v>1.042389972990873</v>
+        <v>1.031339942260015</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036522648008893</v>
+        <v>1.011399189749492</v>
       </c>
       <c r="D6">
-        <v>1.037099474075748</v>
+        <v>1.017497725656553</v>
       </c>
       <c r="E6">
-        <v>1.044724993382601</v>
+        <v>1.024295560275968</v>
       </c>
       <c r="F6">
-        <v>1.054036067060142</v>
+        <v>1.031919535128258</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034876681909227</v>
+        <v>1.046769122070016</v>
       </c>
       <c r="J6">
-        <v>1.0409386187736</v>
+        <v>1.029993169781604</v>
       </c>
       <c r="K6">
-        <v>1.039520250238231</v>
+        <v>1.027133194960799</v>
       </c>
       <c r="L6">
-        <v>1.047127167328233</v>
+        <v>1.033855351325533</v>
       </c>
       <c r="M6">
-        <v>1.056415918922827</v>
+        <v>1.041395906277546</v>
       </c>
       <c r="N6">
-        <v>1.042416871009586</v>
+        <v>1.031455878224562</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036225420200783</v>
+        <v>1.010050217675423</v>
       </c>
       <c r="D7">
-        <v>1.03684335553143</v>
+        <v>1.016399132131871</v>
       </c>
       <c r="E7">
-        <v>1.044458607789687</v>
+        <v>1.023158819650484</v>
       </c>
       <c r="F7">
-        <v>1.053738777002818</v>
+        <v>1.030656497866812</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034838351194985</v>
+        <v>1.046506139028206</v>
       </c>
       <c r="J7">
-        <v>1.040753912776084</v>
+        <v>1.029194287570141</v>
       </c>
       <c r="K7">
-        <v>1.039324498885396</v>
+        <v>1.026300646062124</v>
       </c>
       <c r="L7">
-        <v>1.046920683178868</v>
+        <v>1.032982637076094</v>
       </c>
       <c r="M7">
-        <v>1.056178016382266</v>
+        <v>1.040395604310756</v>
       </c>
       <c r="N7">
-        <v>1.042231902708369</v>
+        <v>1.030655861508726</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034984003763312</v>
+        <v>1.004299022668651</v>
       </c>
       <c r="D8">
-        <v>1.03577426830451</v>
+        <v>1.011726243545454</v>
       </c>
       <c r="E8">
-        <v>1.043346753342027</v>
+        <v>1.018324383433389</v>
       </c>
       <c r="F8">
-        <v>1.052497912337111</v>
+        <v>1.025283966211654</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03467542338114</v>
+        <v>1.045361634059195</v>
       </c>
       <c r="J8">
-        <v>1.039981569368429</v>
+        <v>1.02578325016401</v>
       </c>
       <c r="K8">
-        <v>1.038506416840226</v>
+        <v>1.022749684042426</v>
       </c>
       <c r="L8">
-        <v>1.0460578978178</v>
+        <v>1.029261730814649</v>
       </c>
       <c r="M8">
-        <v>1.055184110532602</v>
+        <v>1.036132004437178</v>
       </c>
       <c r="N8">
-        <v>1.041458462484485</v>
+        <v>1.027239980038227</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032800109228964</v>
+        <v>0.9937073145253861</v>
       </c>
       <c r="D9">
-        <v>1.033895945000247</v>
+        <v>1.003165006115872</v>
       </c>
       <c r="E9">
-        <v>1.041393624882096</v>
+        <v>1.009469772189928</v>
       </c>
       <c r="F9">
-        <v>1.050318077465679</v>
+        <v>1.015439569906931</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03437813743848</v>
+        <v>1.043167310514203</v>
       </c>
       <c r="J9">
-        <v>1.03861952947699</v>
+        <v>1.01948425754869</v>
       </c>
       <c r="K9">
-        <v>1.037065401787282</v>
+        <v>1.016206941169826</v>
       </c>
       <c r="L9">
-        <v>1.044538707769335</v>
+        <v>1.022411054874932</v>
       </c>
       <c r="M9">
-        <v>1.053434644523944</v>
+        <v>1.028287020742907</v>
       </c>
       <c r="N9">
-        <v>1.040094488340172</v>
+        <v>1.020932042130888</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031346687922498</v>
+        <v>0.9863056449132441</v>
       </c>
       <c r="D10">
-        <v>1.032647540406588</v>
+        <v>0.9972155162115339</v>
       </c>
       <c r="E10">
-        <v>1.040095724672435</v>
+        <v>1.00331804853904</v>
       </c>
       <c r="F10">
-        <v>1.048869462814493</v>
+        <v>1.008596825882684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034173129920349</v>
+        <v>1.041578035291105</v>
       </c>
       <c r="J10">
-        <v>1.037710842917555</v>
+        <v>1.015073329699088</v>
       </c>
       <c r="K10">
-        <v>1.03610515984171</v>
+        <v>1.011635228030315</v>
       </c>
       <c r="L10">
-        <v>1.04352675324782</v>
+        <v>1.017627651912957</v>
       </c>
       <c r="M10">
-        <v>1.052269701795692</v>
+        <v>1.022812577615691</v>
       </c>
       <c r="N10">
-        <v>1.039184511341595</v>
+        <v>1.016514850257799</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03071794790163</v>
+        <v>0.9830118904242953</v>
       </c>
       <c r="D11">
-        <v>1.032107888611014</v>
+        <v>0.9945765990804273</v>
       </c>
       <c r="E11">
-        <v>1.039534729661128</v>
+        <v>1.000589793943671</v>
       </c>
       <c r="F11">
-        <v>1.04824330757773</v>
+        <v>1.005561189324889</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034082749137727</v>
+        <v>1.040858185560687</v>
       </c>
       <c r="J11">
-        <v>1.037317227698308</v>
+        <v>1.013108879077679</v>
       </c>
       <c r="K11">
-        <v>1.03568948109659</v>
+        <v>1.009601522704708</v>
       </c>
       <c r="L11">
-        <v>1.043088778658581</v>
+        <v>1.015500596179513</v>
       </c>
       <c r="M11">
-        <v>1.051765608775338</v>
+        <v>1.020378986313878</v>
       </c>
       <c r="N11">
-        <v>1.038790337143589</v>
+        <v>1.014547609891182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030484497112122</v>
+        <v>0.9817743713443156</v>
       </c>
       <c r="D12">
-        <v>1.031907576842383</v>
+        <v>0.9935864731506755</v>
       </c>
       <c r="E12">
-        <v>1.039326503407806</v>
+        <v>0.999566201014586</v>
       </c>
       <c r="F12">
-        <v>1.048010892985379</v>
+        <v>1.004422123591599</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034048936134822</v>
+        <v>1.040585885117535</v>
       </c>
       <c r="J12">
-        <v>1.037171000240951</v>
+        <v>1.01237061543545</v>
       </c>
       <c r="K12">
-        <v>1.035535097444337</v>
+        <v>1.008837586425425</v>
       </c>
       <c r="L12">
-        <v>1.042926127800748</v>
+        <v>1.014701716649935</v>
       </c>
       <c r="M12">
-        <v>1.051578417719866</v>
+        <v>1.019465090265488</v>
       </c>
       <c r="N12">
-        <v>1.03864390202647</v>
+        <v>1.013808297829901</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030534568954335</v>
+        <v>0.9820404725102755</v>
       </c>
       <c r="D13">
-        <v>1.03195053808753</v>
+        <v>0.9937993153579341</v>
       </c>
       <c r="E13">
-        <v>1.039371161733175</v>
+        <v>0.9997862351070682</v>
       </c>
       <c r="F13">
-        <v>1.048060739109172</v>
+        <v>1.004666986892338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034056200061532</v>
+        <v>1.04064451958014</v>
       </c>
       <c r="J13">
-        <v>1.037202367472189</v>
+        <v>1.012529370316738</v>
       </c>
       <c r="K13">
-        <v>1.035568212432855</v>
+        <v>1.009001845892785</v>
       </c>
       <c r="L13">
-        <v>1.042961015477862</v>
+        <v>1.014873483979499</v>
       </c>
       <c r="M13">
-        <v>1.05161856848483</v>
+        <v>1.019661582279507</v>
       </c>
       <c r="N13">
-        <v>1.038675313802774</v>
+        <v>1.013967278161329</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030698648919547</v>
+        <v>0.9829098881956182</v>
       </c>
       <c r="D14">
-        <v>1.032091327935534</v>
+        <v>0.994494960147854</v>
       </c>
       <c r="E14">
-        <v>1.039517514499779</v>
+        <v>1.000505394497331</v>
       </c>
       <c r="F14">
-        <v>1.048224092693144</v>
+        <v>1.005467271753682</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034079959069105</v>
+        <v>1.04083577835065</v>
       </c>
       <c r="J14">
-        <v>1.037305140918626</v>
+        <v>1.013048031351971</v>
       </c>
       <c r="K14">
-        <v>1.035676719323584</v>
+        <v>1.009538551837151</v>
       </c>
       <c r="L14">
-        <v>1.04307533322053</v>
+        <v>1.015434742465795</v>
       </c>
       <c r="M14">
-        <v>1.051750134445859</v>
+        <v>1.020303649215706</v>
       </c>
       <c r="N14">
-        <v>1.038778233199293</v>
+        <v>1.014486675754724</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030799756121484</v>
+        <v>0.9834436764244332</v>
       </c>
       <c r="D15">
-        <v>1.032178091659009</v>
+        <v>0.9949222409652296</v>
       </c>
       <c r="E15">
-        <v>1.039607707488386</v>
+        <v>1.000947125388045</v>
       </c>
       <c r="F15">
-        <v>1.048324762444196</v>
+        <v>1.00595881260501</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034094565784416</v>
+        <v>1.040952962896734</v>
       </c>
       <c r="J15">
-        <v>1.037368460246083</v>
+        <v>1.013366446513488</v>
       </c>
       <c r="K15">
-        <v>1.035743576409377</v>
+        <v>1.009868091803387</v>
       </c>
       <c r="L15">
-        <v>1.043145772481588</v>
+        <v>1.015779373979889</v>
       </c>
       <c r="M15">
-        <v>1.051831203442551</v>
+        <v>1.020697914586596</v>
       </c>
       <c r="N15">
-        <v>1.038841642447458</v>
+        <v>1.014805543102293</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031388428070769</v>
+        <v>0.9865223085387775</v>
       </c>
       <c r="D16">
-        <v>1.032683374727462</v>
+        <v>0.9973892895293073</v>
       </c>
       <c r="E16">
-        <v>1.04013297734198</v>
+        <v>1.003497712165934</v>
       </c>
       <c r="F16">
-        <v>1.0489110420654</v>
+        <v>1.008796711473245</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034179094292694</v>
+        <v>1.041625128728929</v>
       </c>
       <c r="J16">
-        <v>1.037736962830604</v>
+        <v>1.015202522849149</v>
       </c>
       <c r="K16">
-        <v>1.036132749528814</v>
+        <v>1.011769024817229</v>
       </c>
       <c r="L16">
-        <v>1.043555824663101</v>
+        <v>1.01776760722743</v>
       </c>
       <c r="M16">
-        <v>1.052303163949246</v>
+        <v>1.022972717857992</v>
       </c>
       <c r="N16">
-        <v>1.039210668347917</v>
+        <v>1.016644226876952</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031757848009219</v>
+        <v>0.9884291812917826</v>
       </c>
       <c r="D17">
-        <v>1.033000571556778</v>
+        <v>0.9989196700989623</v>
       </c>
       <c r="E17">
-        <v>1.040462735109879</v>
+        <v>1.00508000855545</v>
       </c>
       <c r="F17">
-        <v>1.04927909647343</v>
+        <v>1.010556996558442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034231685791555</v>
+        <v>1.042038171150913</v>
       </c>
       <c r="J17">
-        <v>1.037968075854568</v>
+        <v>1.016339387407125</v>
       </c>
       <c r="K17">
-        <v>1.036376898374636</v>
+        <v>1.01294666796368</v>
       </c>
       <c r="L17">
-        <v>1.043813096130431</v>
+        <v>1.018999549269549</v>
       </c>
       <c r="M17">
-        <v>1.05259930282556</v>
+        <v>1.024382421174946</v>
       </c>
       <c r="N17">
-        <v>1.039442109578884</v>
+        <v>1.017782705913</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031973382332256</v>
+        <v>0.9895329137872693</v>
       </c>
       <c r="D18">
-        <v>1.033185675353889</v>
+        <v>0.9998062953966772</v>
       </c>
       <c r="E18">
-        <v>1.040655174048882</v>
+        <v>1.005996746022072</v>
       </c>
       <c r="F18">
-        <v>1.049493882853114</v>
+        <v>1.011576768975465</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034262206034191</v>
+        <v>1.042276045945746</v>
       </c>
       <c r="J18">
-        <v>1.03810286583073</v>
+        <v>1.016997271671788</v>
       </c>
       <c r="K18">
-        <v>1.036519317035016</v>
+        <v>1.013628373272235</v>
       </c>
       <c r="L18">
-        <v>1.043963178258314</v>
+        <v>1.019712764479236</v>
       </c>
       <c r="M18">
-        <v>1.052772067849442</v>
+        <v>1.025198620212024</v>
       </c>
       <c r="N18">
-        <v>1.039577090972273</v>
+        <v>1.01844152444878</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032046883762238</v>
+        <v>0.9899078353580919</v>
       </c>
       <c r="D19">
-        <v>1.033248805892682</v>
+        <v>1.000107604931367</v>
       </c>
       <c r="E19">
-        <v>1.040720807133013</v>
+        <v>1.00630829479547</v>
       </c>
       <c r="F19">
-        <v>1.049567137474418</v>
+        <v>1.011923319289801</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034272586259266</v>
+        <v>1.042356643043551</v>
       </c>
       <c r="J19">
-        <v>1.038148823266875</v>
+        <v>1.017220717675928</v>
       </c>
       <c r="K19">
-        <v>1.036567879912139</v>
+        <v>1.013859947774655</v>
       </c>
       <c r="L19">
-        <v>1.044014355750173</v>
+        <v>1.019955056060792</v>
       </c>
       <c r="M19">
-        <v>1.052830981686993</v>
+        <v>1.025475909340463</v>
       </c>
       <c r="N19">
-        <v>1.039623113673248</v>
+        <v>1.018665287771875</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031718206747787</v>
+        <v>0.988225477687603</v>
       </c>
       <c r="D20">
-        <v>1.032966530200546</v>
+        <v>0.9987561008241643</v>
       </c>
       <c r="E20">
-        <v>1.040427345198465</v>
+        <v>1.004910886853429</v>
       </c>
       <c r="F20">
-        <v>1.049239596695746</v>
+        <v>1.010368859822845</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034226059300742</v>
+        <v>1.041994171751216</v>
       </c>
       <c r="J20">
-        <v>1.037943281090492</v>
+        <v>1.016217956276495</v>
       </c>
       <c r="K20">
-        <v>1.036350702392476</v>
+        <v>1.012820858020316</v>
       </c>
       <c r="L20">
-        <v>1.043785491256666</v>
+        <v>1.018867930404046</v>
       </c>
       <c r="M20">
-        <v>1.052567526584429</v>
+        <v>1.024231803149457</v>
       </c>
       <c r="N20">
-        <v>1.039417279603398</v>
+        <v>1.017661102336237</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030650328932759</v>
+        <v>0.9826542615471738</v>
       </c>
       <c r="D21">
-        <v>1.032049864988045</v>
+        <v>0.9942903878620138</v>
       </c>
       <c r="E21">
-        <v>1.039474413043211</v>
+        <v>1.000293905706883</v>
       </c>
       <c r="F21">
-        <v>1.048175984503362</v>
+        <v>1.005231929941633</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034072969297623</v>
+        <v>1.040779594428645</v>
       </c>
       <c r="J21">
-        <v>1.037274877278581</v>
+        <v>1.012895538719301</v>
       </c>
       <c r="K21">
-        <v>1.035644766244915</v>
+        <v>1.009380744030481</v>
       </c>
       <c r="L21">
-        <v>1.043041668591252</v>
+        <v>1.015269712093361</v>
       </c>
       <c r="M21">
-        <v>1.051711390116997</v>
+        <v>1.020114855145975</v>
       </c>
       <c r="N21">
-        <v>1.038747926581408</v>
+        <v>1.014333966565024</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029979440181281</v>
+        <v>0.9790695995993036</v>
       </c>
       <c r="D22">
-        <v>1.031474325708462</v>
+        <v>0.9914249889087815</v>
       </c>
       <c r="E22">
-        <v>1.03887614845913</v>
+        <v>0.9973317512156872</v>
       </c>
       <c r="F22">
-        <v>1.047508218191863</v>
+        <v>1.00193531782391</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03397531821844</v>
+        <v>1.039987412608007</v>
       </c>
       <c r="J22">
-        <v>1.03685450287924</v>
+        <v>1.010756752173031</v>
       </c>
       <c r="K22">
-        <v>1.035201020502138</v>
+        <v>1.007168254136851</v>
       </c>
       <c r="L22">
-        <v>1.042574185790362</v>
+        <v>1.012956252603011</v>
       </c>
       <c r="M22">
-        <v>1.051173401925616</v>
+        <v>1.017468532936337</v>
       </c>
       <c r="N22">
-        <v>1.038326955202203</v>
+        <v>1.012192142696536</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030335040593965</v>
+        <v>0.9809779104279915</v>
       </c>
       <c r="D23">
-        <v>1.031779353252339</v>
+        <v>0.9929496247908169</v>
       </c>
       <c r="E23">
-        <v>1.039193215800105</v>
+        <v>0.9989078412452788</v>
       </c>
       <c r="F23">
-        <v>1.047862121437966</v>
+        <v>1.003689450230443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034027217183939</v>
+        <v>1.040410122352307</v>
       </c>
       <c r="J23">
-        <v>1.037077362573608</v>
+        <v>1.011895426803648</v>
       </c>
       <c r="K23">
-        <v>1.035436248272167</v>
+        <v>1.008345973297293</v>
       </c>
       <c r="L23">
-        <v>1.042821989078756</v>
+        <v>1.014187651154334</v>
       </c>
       <c r="M23">
-        <v>1.051458570913517</v>
+        <v>1.018877045065295</v>
       </c>
       <c r="N23">
-        <v>1.038550131382899</v>
+        <v>1.013332434375737</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031736118748573</v>
+        <v>0.9883175488357745</v>
       </c>
       <c r="D24">
-        <v>1.032981911751587</v>
+        <v>0.9988300293065202</v>
       </c>
       <c r="E24">
-        <v>1.040443336077099</v>
+        <v>1.004987324761045</v>
       </c>
       <c r="F24">
-        <v>1.049257444616191</v>
+        <v>1.010453892219708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034228602150232</v>
+        <v>1.042014062587236</v>
       </c>
       <c r="J24">
-        <v>1.037954484821497</v>
+        <v>1.016272841910045</v>
       </c>
       <c r="K24">
-        <v>1.036362539196045</v>
+        <v>1.012877722140691</v>
       </c>
       <c r="L24">
-        <v>1.043797964649084</v>
+        <v>1.018927419824985</v>
       </c>
       <c r="M24">
-        <v>1.052581884800539</v>
+        <v>1.024299879636132</v>
       </c>
       <c r="N24">
-        <v>1.039428499244986</v>
+        <v>1.017716065913681</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033364260687623</v>
+        <v>0.9965029967162281</v>
       </c>
       <c r="D25">
-        <v>1.034380870955061</v>
+        <v>1.005419240572985</v>
       </c>
       <c r="E25">
-        <v>1.04189782379944</v>
+        <v>1.011800961927461</v>
       </c>
       <c r="F25">
-        <v>1.050880811006087</v>
+        <v>1.018031888997456</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034456196836769</v>
+        <v>1.043756331679004</v>
       </c>
       <c r="J25">
-        <v>1.038971770219853</v>
+        <v>1.021148624833784</v>
       </c>
       <c r="K25">
-        <v>1.037437866846959</v>
+        <v>1.017934008300555</v>
       </c>
       <c r="L25">
-        <v>1.04493131186717</v>
+        <v>1.024218804202135</v>
       </c>
       <c r="M25">
-        <v>1.053886687805035</v>
+        <v>1.03035658650742</v>
       </c>
       <c r="N25">
-        <v>1.040447229305294</v>
+        <v>1.022598773008432</v>
       </c>
     </row>
   </sheetData>
